--- a/testdata/FCfiles/stg/ManageClaims/ManageClaims.xlsx
+++ b/testdata/FCfiles/stg/ManageClaims/ManageClaims.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="266">
   <si>
     <t>shipmentType</t>
   </si>
@@ -809,6 +809,24 @@
   </si>
   <si>
     <t>DropOff91</t>
+  </si>
+  <si>
+    <t>58571703</t>
+  </si>
+  <si>
+    <t>02-12-2022</t>
+  </si>
+  <si>
+    <t>FCT942112781459521536</t>
+  </si>
+  <si>
+    <t>FCTEST1004280</t>
+  </si>
+  <si>
+    <t>PickUp7</t>
+  </si>
+  <si>
+    <t>DropOff936</t>
   </si>
 </sst>
 </file>
@@ -837,7 +855,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="542">
+  <fills count="562">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3544,8 +3562,108 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="540">
+  <borders count="560">
     <border>
       <left/>
       <right/>
@@ -5676,11 +5794,81 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="296">
+  <cellXfs count="306">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -5976,7 +6164,17 @@
     <xf applyBorder="true" applyFill="true" borderId="533" fillId="535" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="535" fillId="537" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="537" fillId="539" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="541" borderId="539" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="539" fillId="541" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="541" fillId="543" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="543" fillId="545" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="545" fillId="547" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="547" fillId="549" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="549" fillId="551" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="551" fillId="553" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="553" fillId="555" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="555" fillId="557" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="557" fillId="559" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="561" borderId="559" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -6437,8 +6635,8 @@
       <c r="B2" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="294" t="s">
-        <v>258</v>
+      <c r="C2" s="304" t="s">
+        <v>264</v>
       </c>
       <c r="D2" t="s">
         <v>114</v>
@@ -6461,8 +6659,8 @@
       <c r="J2" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K2" s="295" t="s">
-        <v>259</v>
+      <c r="K2" s="305" t="s">
+        <v>265</v>
       </c>
       <c r="L2" t="s">
         <v>117</v>
@@ -6607,8 +6805,8 @@
       <c r="A2" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="288" t="s">
-        <v>255</v>
+      <c r="B2" s="298" t="s">
+        <v>261</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>17</v>
@@ -6659,22 +6857,22 @@
       <c r="S2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="287" t="s">
-        <v>254</v>
-      </c>
-      <c r="U2" s="289" t="s">
+      <c r="T2" s="297" t="s">
+        <v>260</v>
+      </c>
+      <c r="U2" s="299" t="s">
         <v>195</v>
       </c>
       <c r="V2" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="W2" s="290" t="s">
-        <v>256</v>
-      </c>
-      <c r="X2" s="291" t="s">
-        <v>257</v>
-      </c>
-      <c r="Y2" s="292" t="s">
+      <c r="W2" s="300" t="s">
+        <v>262</v>
+      </c>
+      <c r="X2" s="301" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y2" s="302" t="s">
         <v>139</v>
       </c>
     </row>
@@ -6907,7 +7105,7 @@
       <c r="B2" s="193" t="s">
         <v>194</v>
       </c>
-      <c r="C2" s="293" t="s">
+      <c r="C2" s="303" t="s">
         <v>82</v>
       </c>
       <c r="D2" s="1" t="s">

--- a/testdata/FCfiles/stg/ManageClaims/ManageClaims.xlsx
+++ b/testdata/FCfiles/stg/ManageClaims/ManageClaims.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="273">
   <si>
     <t>shipmentType</t>
   </si>
@@ -827,6 +827,27 @@
   </si>
   <si>
     <t>DropOff936</t>
+  </si>
+  <si>
+    <t>58572102</t>
+  </si>
+  <si>
+    <t>02-15-2022</t>
+  </si>
+  <si>
+    <t>$709.82</t>
+  </si>
+  <si>
+    <t>FCT943034220790415360</t>
+  </si>
+  <si>
+    <t>FCTEST1004293</t>
+  </si>
+  <si>
+    <t>PickUp115</t>
+  </si>
+  <si>
+    <t>DropOff95</t>
   </si>
 </sst>
 </file>
@@ -855,7 +876,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="562">
+  <fills count="592">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3662,8 +3683,158 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="560">
+  <borders count="590">
     <border>
       <left/>
       <right/>
@@ -5864,11 +6035,116 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="306">
+  <cellXfs count="321">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -6174,7 +6450,22 @@
     <xf applyBorder="true" applyFill="true" borderId="553" fillId="555" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="555" fillId="557" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="557" fillId="559" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="561" borderId="559" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="559" fillId="561" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="561" fillId="563" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="563" fillId="565" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="565" fillId="567" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="567" fillId="569" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="569" fillId="571" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="571" fillId="573" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="573" fillId="575" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="575" fillId="577" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="577" fillId="579" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="579" fillId="581" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="581" fillId="583" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="583" fillId="585" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="585" fillId="587" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="587" fillId="589" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="591" borderId="589" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -6635,8 +6926,8 @@
       <c r="B2" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="304" t="s">
-        <v>264</v>
+      <c r="C2" s="319" t="s">
+        <v>271</v>
       </c>
       <c r="D2" t="s">
         <v>114</v>
@@ -6659,8 +6950,8 @@
       <c r="J2" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K2" s="305" t="s">
-        <v>265</v>
+      <c r="K2" s="320" t="s">
+        <v>272</v>
       </c>
       <c r="L2" t="s">
         <v>117</v>
@@ -6805,8 +7096,8 @@
       <c r="A2" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="298" t="s">
-        <v>261</v>
+      <c r="B2" s="313" t="s">
+        <v>267</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>17</v>
@@ -6857,22 +7148,22 @@
       <c r="S2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="297" t="s">
-        <v>260</v>
-      </c>
-      <c r="U2" s="299" t="s">
-        <v>195</v>
+      <c r="T2" s="312" t="s">
+        <v>266</v>
+      </c>
+      <c r="U2" s="314" t="s">
+        <v>268</v>
       </c>
       <c r="V2" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="W2" s="300" t="s">
-        <v>262</v>
-      </c>
-      <c r="X2" s="301" t="s">
-        <v>263</v>
-      </c>
-      <c r="Y2" s="302" t="s">
+      <c r="W2" s="315" t="s">
+        <v>269</v>
+      </c>
+      <c r="X2" s="316" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y2" s="317" t="s">
         <v>139</v>
       </c>
     </row>
@@ -7105,7 +7396,7 @@
       <c r="B2" s="193" t="s">
         <v>194</v>
       </c>
-      <c r="C2" s="303" t="s">
+      <c r="C2" s="318" t="s">
         <v>82</v>
       </c>
       <c r="D2" s="1" t="s">

--- a/testdata/FCfiles/stg/ManageClaims/ManageClaims.xlsx
+++ b/testdata/FCfiles/stg/ManageClaims/ManageClaims.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\git\qualitesoft\testdata\FCfiles\stg\ManageClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{D9D24F22-0E3D-4D9E-9C0C-7BBA24922048}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{12952F09-C7A3-4394-A5DB-E411EC643D83}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView tabRatio="669" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView activeTab="2" tabRatio="669" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="CreateAccount" r:id="rId1" sheetId="5"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="176">
   <si>
     <t>shipmentType</t>
   </si>
@@ -334,9 +334,6 @@
     <t>1234567890</t>
   </si>
   <si>
-    <t>FC Test Carrier</t>
-  </si>
-  <si>
     <t>PaymentMethod</t>
   </si>
   <si>
@@ -454,37 +451,67 @@
     <t>FCTEST1004430</t>
   </si>
   <si>
-    <t>59069932</t>
-  </si>
-  <si>
     <t>05-13-2022</t>
   </si>
   <si>
-    <t>FCTEST1004434</t>
-  </si>
-  <si>
-    <t>PickUp960</t>
-  </si>
-  <si>
-    <t>DropOff357</t>
-  </si>
-  <si>
     <t>Test</t>
   </si>
   <si>
     <t>Automation</t>
   </si>
   <si>
-    <t>59069938</t>
-  </si>
-  <si>
-    <t>FCTEST1004435</t>
-  </si>
-  <si>
-    <t>PickUp113</t>
-  </si>
-  <si>
-    <t>DropOff594</t>
+    <t>Pending Documentation</t>
+  </si>
+  <si>
+    <t>59069939</t>
+  </si>
+  <si>
+    <t>FCTEST1004436</t>
+  </si>
+  <si>
+    <t>PickUp680</t>
+  </si>
+  <si>
+    <t>DropOff831</t>
+  </si>
+  <si>
+    <t>FragilePAK</t>
+  </si>
+  <si>
+    <t>59070314</t>
+  </si>
+  <si>
+    <t>05-18-2022</t>
+  </si>
+  <si>
+    <t>$694.99</t>
+  </si>
+  <si>
+    <t>999U668166</t>
+  </si>
+  <si>
+    <t>FCPBID1034610</t>
+  </si>
+  <si>
+    <t>PickUp992</t>
+  </si>
+  <si>
+    <t>DropOff805</t>
+  </si>
+  <si>
+    <t>59070315</t>
+  </si>
+  <si>
+    <t>999U668186</t>
+  </si>
+  <si>
+    <t>FCPBID1034611</t>
+  </si>
+  <si>
+    <t>PickUp936</t>
+  </si>
+  <si>
+    <t>DropOff873</t>
   </si>
   <si>
     <t>Review</t>
@@ -496,19 +523,40 @@
     <t>Filed - Review</t>
   </si>
   <si>
-    <t>Pending Documentation</t>
-  </si>
-  <si>
-    <t>59069939</t>
-  </si>
-  <si>
-    <t>FCTEST1004436</t>
-  </si>
-  <si>
-    <t>PickUp680</t>
-  </si>
-  <si>
-    <t>DropOff831</t>
+    <t>59070320</t>
+  </si>
+  <si>
+    <t>$663.63</t>
+  </si>
+  <si>
+    <t>999U668418</t>
+  </si>
+  <si>
+    <t>FCPBID1034612</t>
+  </si>
+  <si>
+    <t>PickUp967</t>
+  </si>
+  <si>
+    <t>DropOff97</t>
+  </si>
+  <si>
+    <t>59070322</t>
+  </si>
+  <si>
+    <t>$661.53</t>
+  </si>
+  <si>
+    <t>999U668528</t>
+  </si>
+  <si>
+    <t>FCPBID1034613</t>
+  </si>
+  <si>
+    <t>PickUp229</t>
+  </si>
+  <si>
+    <t>DropOff169</t>
   </si>
 </sst>
 </file>
@@ -537,7 +585,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="108">
+  <fills count="152">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1074,8 +1122,228 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="106">
+  <borders count="150">
     <border>
       <left/>
       <right/>
@@ -1687,11 +1955,165 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="101">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -1770,7 +2192,29 @@
     <xf applyBorder="true" applyFill="true" borderId="99" fillId="101" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="101" fillId="103" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="103" fillId="105" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="107" borderId="105" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="105" fillId="107" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="107" fillId="109" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="109" fillId="111" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="111" fillId="113" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="113" fillId="115" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="115" fillId="117" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="117" fillId="119" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="119" fillId="121" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="121" fillId="123" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="123" fillId="125" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="125" fillId="127" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="127" fillId="129" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="129" fillId="131" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="131" fillId="133" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="133" fillId="135" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="135" fillId="137" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="137" fillId="139" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="139" fillId="141" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="141" fillId="143" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="143" fillId="145" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="145" fillId="147" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="147" fillId="149" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="151" borderId="149" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2053,7 +2497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2104,10 +2548,10 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D2" t="s">
         <v>95</v>
@@ -2170,111 +2614,111 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" t="s">
         <v>121</v>
       </c>
-      <c r="D1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M1" t="s">
         <v>127</v>
       </c>
-      <c r="H1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K1" t="s">
-        <v>122</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
+        <v>128</v>
+      </c>
+      <c r="O1" t="s">
+        <v>129</v>
+      </c>
+      <c r="P1" t="s">
         <v>108</v>
       </c>
-      <c r="M1" t="s">
-        <v>128</v>
-      </c>
-      <c r="N1" t="s">
-        <v>129</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
+        <v>109</v>
+      </c>
+      <c r="R1" t="s">
         <v>130</v>
-      </c>
-      <c r="P1" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>110</v>
-      </c>
-      <c r="R1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="71" t="s">
-        <v>158</v>
+        <v>117</v>
+      </c>
+      <c r="C2" s="99" t="s">
+        <v>174</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E2" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" t="s">
         <v>125</v>
-      </c>
-      <c r="F2" t="s">
-        <v>126</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" t="s">
         <v>112</v>
-      </c>
-      <c r="I2" t="s">
-        <v>113</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K2" s="72" t="s">
-        <v>159</v>
+      <c r="K2" s="100" t="s">
+        <v>175</v>
       </c>
       <c r="L2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M2" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="N2" t="s">
         <v>132</v>
-      </c>
-      <c r="N2" t="s">
-        <v>133</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="P2" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q2" t="s">
         <v>115</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>116</v>
       </c>
       <c r="R2" s="7" t="s">
         <v>100</v>
@@ -2290,7 +2734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
       <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
@@ -2311,11 +2755,11 @@
     <col min="16" max="16" style="1" width="9.140625" collapsed="true"/>
     <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="14.140625" collapsed="true"/>
     <col min="18" max="19" style="1" width="9.140625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="7.98828125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="9.9453125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="9.95703125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="8.28125" collapsed="true"/>
     <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="15.25390625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="15.25390625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="12.484375" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="15.265625" collapsed="true"/>
     <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="9.76171875" collapsed="true"/>
     <col min="26" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
@@ -2401,8 +2845,8 @@
       <c r="A2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="65" t="s">
-        <v>142</v>
+      <c r="B2" s="93" t="s">
+        <v>150</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>17</v>
@@ -2453,31 +2897,31 @@
       <c r="S2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="64" t="s">
-        <v>156</v>
-      </c>
-      <c r="U2" s="66" t="s">
+      <c r="T2" s="92" t="s">
+        <v>170</v>
+      </c>
+      <c r="U2" s="94" t="s">
+        <v>171</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="W2" s="95" t="s">
+        <v>172</v>
+      </c>
+      <c r="X2" s="96" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y2" s="97" t="s">
         <v>136</v>
-      </c>
-      <c r="V2" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="W2" s="67" t="s">
-        <v>157</v>
-      </c>
-      <c r="X2" s="68" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y2" s="69" t="s">
-        <v>137</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>135</v>
+      <c r="B3" s="74" t="s">
+        <v>150</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>17</v>
@@ -2528,22 +2972,22 @@
       <c r="S3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="U3" s="24" t="s">
-        <v>139</v>
+      <c r="T3" s="73" t="s">
+        <v>164</v>
+      </c>
+      <c r="U3" s="75" t="s">
+        <v>165</v>
       </c>
       <c r="V3" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="W3" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="X3" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y3" s="27"/>
+        <v>148</v>
+      </c>
+      <c r="W3" s="76" t="s">
+        <v>166</v>
+      </c>
+      <c r="X3" s="77" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y3" s="78"/>
     </row>
     <row customHeight="1" ht="15.75" r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -2604,7 +3048,7 @@
       </c>
       <c r="U4" s="9"/>
       <c r="V4" s="10" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="W4" s="19"/>
       <c r="X4" s="10"/>
@@ -2628,7 +3072,7 @@
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="9.95703125" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="11.3046875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.4296875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5859375" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
@@ -2695,14 +3139,14 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="65" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="74" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="78" t="s">
-        <v>155</v>
+      <c r="B2" s="66" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="98" t="s">
+        <v>79</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>43</v>
@@ -2739,14 +3183,14 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>134</v>
+      <c r="A3" s="82" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="83" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="88" t="s">
+        <v>133</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>78</v>
@@ -2865,7 +3309,7 @@
         <v>93</v>
       </c>
       <c r="F1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row customFormat="1" r="2" s="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2885,7 +3329,7 @@
         <v>96</v>
       </c>
       <c r="F2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">

--- a/testdata/FCfiles/stg/ManageClaims/ManageClaims.xlsx
+++ b/testdata/FCfiles/stg/ManageClaims/ManageClaims.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="182">
   <si>
     <t>shipmentType</t>
   </si>
@@ -557,6 +557,24 @@
   </si>
   <si>
     <t>DropOff169</t>
+  </si>
+  <si>
+    <t>59070344</t>
+  </si>
+  <si>
+    <t>05-19-2022</t>
+  </si>
+  <si>
+    <t>999U670530</t>
+  </si>
+  <si>
+    <t>FCPBID1034615</t>
+  </si>
+  <si>
+    <t>PickUp522</t>
+  </si>
+  <si>
+    <t>DropOff535</t>
   </si>
 </sst>
 </file>
@@ -585,7 +603,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="152">
+  <fills count="180">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1342,8 +1360,148 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="150">
+  <borders count="178">
     <border>
       <left/>
       <right/>
@@ -2109,11 +2267,109 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="115">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -2214,7 +2470,21 @@
     <xf applyBorder="true" applyFill="true" borderId="143" fillId="145" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="145" fillId="147" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="147" fillId="149" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="151" borderId="149" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="149" fillId="151" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="151" fillId="153" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="153" fillId="155" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="155" fillId="157" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="157" fillId="159" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="159" fillId="161" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="161" fillId="163" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="163" fillId="165" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="165" fillId="167" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="167" fillId="169" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="169" fillId="171" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="171" fillId="173" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="173" fillId="175" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="175" fillId="177" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="179" borderId="177" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2675,8 +2945,8 @@
       <c r="B2" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="99" t="s">
-        <v>174</v>
+      <c r="C2" s="109" t="s">
+        <v>180</v>
       </c>
       <c r="D2" t="s">
         <v>110</v>
@@ -2699,8 +2969,8 @@
       <c r="J2" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K2" s="100" t="s">
-        <v>175</v>
+      <c r="K2" s="110" t="s">
+        <v>181</v>
       </c>
       <c r="L2" t="s">
         <v>113</v>
@@ -2920,8 +3190,8 @@
       <c r="A3" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="74" t="s">
-        <v>150</v>
+      <c r="B3" s="103" t="s">
+        <v>177</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>17</v>
@@ -2972,22 +3242,22 @@
       <c r="S3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="73" t="s">
-        <v>164</v>
-      </c>
-      <c r="U3" s="75" t="s">
+      <c r="T3" s="102" t="s">
+        <v>176</v>
+      </c>
+      <c r="U3" s="104" t="s">
         <v>165</v>
       </c>
       <c r="V3" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="W3" s="76" t="s">
-        <v>166</v>
-      </c>
-      <c r="X3" s="77" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y3" s="78"/>
+      <c r="W3" s="105" t="s">
+        <v>178</v>
+      </c>
+      <c r="X3" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y3" s="107"/>
     </row>
     <row customHeight="1" ht="15.75" r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -3183,14 +3453,14 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="82" t="s">
-        <v>164</v>
-      </c>
-      <c r="B3" s="83" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" s="88" t="s">
-        <v>133</v>
+      <c r="A3" s="111" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="112" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="114" t="s">
+        <v>162</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>78</v>

--- a/testdata/FCfiles/stg/ManageClaims/ManageClaims.xlsx
+++ b/testdata/FCfiles/stg/ManageClaims/ManageClaims.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="188">
   <si>
     <t>shipmentType</t>
   </si>
@@ -575,6 +575,24 @@
   </si>
   <si>
     <t>DropOff535</t>
+  </si>
+  <si>
+    <t>59071590</t>
+  </si>
+  <si>
+    <t>05-26-2022</t>
+  </si>
+  <si>
+    <t>999U684759</t>
+  </si>
+  <si>
+    <t>FCPBID1034621</t>
+  </si>
+  <si>
+    <t>PickUp90</t>
+  </si>
+  <si>
+    <t>DropOff771</t>
   </si>
 </sst>
 </file>
@@ -603,7 +621,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="180">
+  <fills count="200">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1500,8 +1518,108 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="178">
+  <borders count="198">
     <border>
       <left/>
       <right/>
@@ -2365,11 +2483,81 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="125">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -2484,7 +2672,17 @@
     <xf applyBorder="true" applyFill="true" borderId="171" fillId="173" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="173" fillId="175" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="175" fillId="177" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="179" borderId="177" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="177" fillId="179" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="179" fillId="181" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="181" fillId="183" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="183" fillId="185" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="185" fillId="187" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="187" fillId="189" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="189" fillId="191" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="191" fillId="193" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="193" fillId="195" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="195" fillId="197" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="199" borderId="197" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2945,8 +3143,8 @@
       <c r="B2" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="109" t="s">
-        <v>180</v>
+      <c r="C2" s="123" t="s">
+        <v>186</v>
       </c>
       <c r="D2" t="s">
         <v>110</v>
@@ -2969,8 +3167,8 @@
       <c r="J2" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K2" s="110" t="s">
-        <v>181</v>
+      <c r="K2" s="124" t="s">
+        <v>187</v>
       </c>
       <c r="L2" t="s">
         <v>113</v>
@@ -3115,8 +3313,8 @@
       <c r="A2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="93" t="s">
-        <v>150</v>
+      <c r="B2" s="117" t="s">
+        <v>183</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>17</v>
@@ -3167,22 +3365,22 @@
       <c r="S2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="92" t="s">
-        <v>170</v>
-      </c>
-      <c r="U2" s="94" t="s">
+      <c r="T2" s="116" t="s">
+        <v>182</v>
+      </c>
+      <c r="U2" s="118" t="s">
         <v>171</v>
       </c>
       <c r="V2" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="W2" s="95" t="s">
-        <v>172</v>
-      </c>
-      <c r="X2" s="96" t="s">
-        <v>173</v>
-      </c>
-      <c r="Y2" s="97" t="s">
+      <c r="W2" s="119" t="s">
+        <v>184</v>
+      </c>
+      <c r="X2" s="120" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y2" s="121" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3342,7 +3540,7 @@
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="9.95703125" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="11.3046875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5859375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="28.49609375" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
@@ -3415,7 +3613,7 @@
       <c r="B2" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="98" t="s">
+      <c r="C2" s="122" t="s">
         <v>79</v>
       </c>
       <c r="D2" s="1" t="s">

--- a/testdata/FCfiles/stg/ManageClaims/ManageClaims.xlsx
+++ b/testdata/FCfiles/stg/ManageClaims/ManageClaims.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="209">
   <si>
     <t>shipmentType</t>
   </si>
@@ -593,6 +593,69 @@
   </si>
   <si>
     <t>DropOff771</t>
+  </si>
+  <si>
+    <t>59071919</t>
+  </si>
+  <si>
+    <t>06-01-2022</t>
+  </si>
+  <si>
+    <t>999U694723</t>
+  </si>
+  <si>
+    <t>FCPBID1034627</t>
+  </si>
+  <si>
+    <t>PickUp161</t>
+  </si>
+  <si>
+    <t>DropOff304</t>
+  </si>
+  <si>
+    <t>59071926</t>
+  </si>
+  <si>
+    <t>999U694829</t>
+  </si>
+  <si>
+    <t>FCPBID1034628</t>
+  </si>
+  <si>
+    <t>PickUp3409</t>
+  </si>
+  <si>
+    <t>DropOff4158</t>
+  </si>
+  <si>
+    <t>59071939</t>
+  </si>
+  <si>
+    <t>999U694889</t>
+  </si>
+  <si>
+    <t>FCPBID1034631</t>
+  </si>
+  <si>
+    <t>PickUp1827</t>
+  </si>
+  <si>
+    <t>DropOff7521</t>
+  </si>
+  <si>
+    <t>59071955</t>
+  </si>
+  <si>
+    <t>999U694909</t>
+  </si>
+  <si>
+    <t>FCPBID1034633</t>
+  </si>
+  <si>
+    <t>PickUp4422</t>
+  </si>
+  <si>
+    <t>DropOff3875</t>
   </si>
 </sst>
 </file>
@@ -621,7 +684,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="200">
+  <fills count="330">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1618,8 +1681,658 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="198">
+  <borders count="328">
     <border>
       <left/>
       <right/>
@@ -2553,11 +3266,466 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="190">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -2682,7 +3850,72 @@
     <xf applyBorder="true" applyFill="true" borderId="191" fillId="193" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="193" fillId="195" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="195" fillId="197" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="199" borderId="197" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="197" fillId="199" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="199" fillId="201" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="201" fillId="203" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="203" fillId="205" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="205" fillId="207" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="207" fillId="209" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="209" fillId="211" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="211" fillId="213" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="213" fillId="215" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="215" fillId="217" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="217" fillId="219" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="219" fillId="221" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="221" fillId="223" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="223" fillId="225" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="225" fillId="227" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="227" fillId="229" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="229" fillId="231" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="231" fillId="233" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="233" fillId="235" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="235" fillId="237" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="237" fillId="239" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="239" fillId="241" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="241" fillId="243" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="243" fillId="245" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="245" fillId="247" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="247" fillId="249" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="249" fillId="251" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="251" fillId="253" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="253" fillId="255" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="255" fillId="257" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="257" fillId="259" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="259" fillId="261" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="261" fillId="263" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="263" fillId="265" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="265" fillId="267" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="267" fillId="269" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="269" fillId="271" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="271" fillId="273" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="273" fillId="275" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="275" fillId="277" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="277" fillId="279" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="279" fillId="281" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="281" fillId="283" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="283" fillId="285" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="285" fillId="287" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="287" fillId="289" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="289" fillId="291" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="291" fillId="293" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="293" fillId="295" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="295" fillId="297" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="297" fillId="299" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="299" fillId="301" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="301" fillId="303" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="303" fillId="305" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="305" fillId="307" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="307" fillId="309" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="309" fillId="311" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="311" fillId="313" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="313" fillId="315" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="315" fillId="317" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="317" fillId="319" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="319" fillId="321" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="321" fillId="323" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="323" fillId="325" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="325" fillId="327" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="329" borderId="327" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -3143,8 +4376,8 @@
       <c r="B2" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="123" t="s">
-        <v>186</v>
+      <c r="C2" s="188" t="s">
+        <v>207</v>
       </c>
       <c r="D2" t="s">
         <v>110</v>
@@ -3167,8 +4400,8 @@
       <c r="J2" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K2" s="124" t="s">
-        <v>187</v>
+      <c r="K2" s="189" t="s">
+        <v>208</v>
       </c>
       <c r="L2" t="s">
         <v>113</v>
@@ -3313,8 +4546,8 @@
       <c r="A2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="117" t="s">
-        <v>183</v>
+      <c r="B2" s="182" t="s">
+        <v>189</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>17</v>
@@ -3365,22 +4598,22 @@
       <c r="S2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="116" t="s">
-        <v>182</v>
-      </c>
-      <c r="U2" s="118" t="s">
+      <c r="T2" s="181" t="s">
+        <v>204</v>
+      </c>
+      <c r="U2" s="183" t="s">
         <v>171</v>
       </c>
       <c r="V2" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="W2" s="119" t="s">
-        <v>184</v>
-      </c>
-      <c r="X2" s="120" t="s">
-        <v>185</v>
-      </c>
-      <c r="Y2" s="121" t="s">
+      <c r="W2" s="184" t="s">
+        <v>205</v>
+      </c>
+      <c r="X2" s="185" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y2" s="186" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3388,8 +4621,8 @@
       <c r="A3" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="103" t="s">
-        <v>177</v>
+      <c r="B3" s="164" t="s">
+        <v>189</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>17</v>
@@ -3440,22 +4673,22 @@
       <c r="S3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="102" t="s">
-        <v>176</v>
-      </c>
-      <c r="U3" s="104" t="s">
+      <c r="T3" s="163" t="s">
+        <v>199</v>
+      </c>
+      <c r="U3" s="165" t="s">
         <v>165</v>
       </c>
       <c r="V3" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="W3" s="105" t="s">
-        <v>178</v>
-      </c>
-      <c r="X3" s="106" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y3" s="107"/>
+      <c r="W3" s="166" t="s">
+        <v>200</v>
+      </c>
+      <c r="X3" s="167" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y3" s="168"/>
     </row>
     <row customHeight="1" ht="15.75" r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -3540,7 +4773,7 @@
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="9.95703125" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="11.3046875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="28.49609375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5859375" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
@@ -3607,13 +4840,13 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
-        <v>156</v>
-      </c>
-      <c r="B2" s="66" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="122" t="s">
+      <c r="A2" s="154" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="155" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="187" t="s">
         <v>79</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -3651,14 +4884,14 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="111" t="s">
-        <v>176</v>
-      </c>
-      <c r="B3" s="112" t="s">
-        <v>177</v>
-      </c>
-      <c r="C3" s="114" t="s">
-        <v>162</v>
+      <c r="A3" s="172" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" s="173" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="179" t="s">
+        <v>133</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>78</v>

--- a/testdata/FCfiles/stg/ManageClaims/ManageClaims.xlsx
+++ b/testdata/FCfiles/stg/ManageClaims/ManageClaims.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="216">
   <si>
     <t>shipmentType</t>
   </si>
@@ -656,6 +656,27 @@
   </si>
   <si>
     <t>DropOff3875</t>
+  </si>
+  <si>
+    <t>59075574</t>
+  </si>
+  <si>
+    <t>06-17-2022</t>
+  </si>
+  <si>
+    <t>$663.78</t>
+  </si>
+  <si>
+    <t>999U748301</t>
+  </si>
+  <si>
+    <t>FCPBID1034676</t>
+  </si>
+  <si>
+    <t>PickUp8399</t>
+  </si>
+  <si>
+    <t>DropOff7493</t>
   </si>
 </sst>
 </file>
@@ -684,7 +705,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="330">
+  <fills count="350">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2331,8 +2352,108 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="328">
+  <borders count="348">
     <border>
       <left/>
       <right/>
@@ -3721,11 +3842,81 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="200">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -3915,7 +4106,17 @@
     <xf applyBorder="true" applyFill="true" borderId="321" fillId="323" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="323" fillId="325" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="325" fillId="327" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="329" borderId="327" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="327" fillId="329" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="329" fillId="331" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="331" fillId="333" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="333" fillId="335" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="335" fillId="337" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="337" fillId="339" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="339" fillId="341" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="341" fillId="343" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="343" fillId="345" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="345" fillId="347" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="349" borderId="347" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -4376,8 +4577,8 @@
       <c r="B2" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="188" t="s">
-        <v>207</v>
+      <c r="C2" s="198" t="s">
+        <v>214</v>
       </c>
       <c r="D2" t="s">
         <v>110</v>
@@ -4400,8 +4601,8 @@
       <c r="J2" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K2" s="189" t="s">
-        <v>208</v>
+      <c r="K2" s="199" t="s">
+        <v>215</v>
       </c>
       <c r="L2" t="s">
         <v>113</v>
@@ -4546,8 +4747,8 @@
       <c r="A2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="182" t="s">
-        <v>189</v>
+      <c r="B2" s="192" t="s">
+        <v>210</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>17</v>
@@ -4598,22 +4799,22 @@
       <c r="S2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="181" t="s">
-        <v>204</v>
-      </c>
-      <c r="U2" s="183" t="s">
-        <v>171</v>
+      <c r="T2" s="191" t="s">
+        <v>209</v>
+      </c>
+      <c r="U2" s="193" t="s">
+        <v>211</v>
       </c>
       <c r="V2" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="W2" s="184" t="s">
-        <v>205</v>
-      </c>
-      <c r="X2" s="185" t="s">
-        <v>206</v>
-      </c>
-      <c r="Y2" s="186" t="s">
+      <c r="W2" s="194" t="s">
+        <v>212</v>
+      </c>
+      <c r="X2" s="195" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y2" s="196" t="s">
         <v>136</v>
       </c>
     </row>
@@ -4846,7 +5047,7 @@
       <c r="B2" s="155" t="s">
         <v>189</v>
       </c>
-      <c r="C2" s="187" t="s">
+      <c r="C2" s="197" t="s">
         <v>79</v>
       </c>
       <c r="D2" s="1" t="s">

--- a/testdata/FCfiles/stg/ManageClaims/ManageClaims.xlsx
+++ b/testdata/FCfiles/stg/ManageClaims/ManageClaims.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="229">
   <si>
     <t>shipmentType</t>
   </si>
@@ -677,6 +677,45 @@
   </si>
   <si>
     <t>DropOff7493</t>
+  </si>
+  <si>
+    <t>59082131</t>
+  </si>
+  <si>
+    <t>07-06-2022</t>
+  </si>
+  <si>
+    <t>$697.36</t>
+  </si>
+  <si>
+    <t>999U813862</t>
+  </si>
+  <si>
+    <t>FCPBID1034723</t>
+  </si>
+  <si>
+    <t>PickUp6505</t>
+  </si>
+  <si>
+    <t>DropOff1642</t>
+  </si>
+  <si>
+    <t>59082134</t>
+  </si>
+  <si>
+    <t>$666.00</t>
+  </si>
+  <si>
+    <t>999U814054</t>
+  </si>
+  <si>
+    <t>FCPBID1034724</t>
+  </si>
+  <si>
+    <t>PickUp6899</t>
+  </si>
+  <si>
+    <t>DropOff4424</t>
   </si>
 </sst>
 </file>
@@ -705,7 +744,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="350">
+  <fills count="428">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2452,8 +2491,398 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="348">
+  <borders count="426">
     <border>
       <left/>
       <right/>
@@ -3912,11 +4341,284 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="239">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -4116,7 +4818,46 @@
     <xf applyBorder="true" applyFill="true" borderId="341" fillId="343" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="343" fillId="345" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="345" fillId="347" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="349" borderId="347" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="347" fillId="349" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="349" fillId="351" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="351" fillId="353" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="353" fillId="355" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="355" fillId="357" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="357" fillId="359" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="359" fillId="361" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="361" fillId="363" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="363" fillId="365" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="365" fillId="367" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="367" fillId="369" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="369" fillId="371" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="371" fillId="373" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="373" fillId="375" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="375" fillId="377" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="377" fillId="379" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="379" fillId="381" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="381" fillId="383" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="383" fillId="385" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="385" fillId="387" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="387" fillId="389" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="389" fillId="391" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="391" fillId="393" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="393" fillId="395" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="395" fillId="397" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="397" fillId="399" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="399" fillId="401" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="401" fillId="403" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="403" fillId="405" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="405" fillId="407" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="407" fillId="409" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="409" fillId="411" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="411" fillId="413" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="413" fillId="415" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="415" fillId="417" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="417" fillId="419" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="419" fillId="421" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="421" fillId="423" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="423" fillId="425" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="427" borderId="425" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -4577,8 +5318,8 @@
       <c r="B2" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="198" t="s">
-        <v>214</v>
+      <c r="C2" s="229" t="s">
+        <v>227</v>
       </c>
       <c r="D2" t="s">
         <v>110</v>
@@ -4601,8 +5342,8 @@
       <c r="J2" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K2" s="199" t="s">
-        <v>215</v>
+      <c r="K2" s="230" t="s">
+        <v>228</v>
       </c>
       <c r="L2" t="s">
         <v>113</v>
@@ -4747,8 +5488,8 @@
       <c r="A2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="192" t="s">
-        <v>210</v>
+      <c r="B2" s="208" t="s">
+        <v>217</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>17</v>
@@ -4799,22 +5540,22 @@
       <c r="S2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="191" t="s">
-        <v>209</v>
-      </c>
-      <c r="U2" s="193" t="s">
-        <v>211</v>
+      <c r="T2" s="207" t="s">
+        <v>216</v>
+      </c>
+      <c r="U2" s="209" t="s">
+        <v>218</v>
       </c>
       <c r="V2" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="W2" s="194" t="s">
-        <v>212</v>
-      </c>
-      <c r="X2" s="195" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y2" s="196" t="s">
+      <c r="W2" s="210" t="s">
+        <v>219</v>
+      </c>
+      <c r="X2" s="211" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y2" s="212" t="s">
         <v>136</v>
       </c>
     </row>
@@ -4822,8 +5563,8 @@
       <c r="A3" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="164" t="s">
-        <v>189</v>
+      <c r="B3" s="223" t="s">
+        <v>217</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>17</v>
@@ -4874,22 +5615,22 @@
       <c r="S3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="163" t="s">
-        <v>199</v>
-      </c>
-      <c r="U3" s="165" t="s">
-        <v>165</v>
+      <c r="T3" s="222" t="s">
+        <v>223</v>
+      </c>
+      <c r="U3" s="224" t="s">
+        <v>224</v>
       </c>
       <c r="V3" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="W3" s="166" t="s">
-        <v>200</v>
-      </c>
-      <c r="X3" s="167" t="s">
-        <v>201</v>
-      </c>
-      <c r="Y3" s="168"/>
+      <c r="W3" s="225" t="s">
+        <v>225</v>
+      </c>
+      <c r="X3" s="226" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y3" s="227"/>
     </row>
     <row customHeight="1" ht="15.75" r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -5041,14 +5782,14 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="154" t="s">
-        <v>194</v>
-      </c>
-      <c r="B2" s="155" t="s">
-        <v>189</v>
-      </c>
-      <c r="C2" s="197" t="s">
-        <v>79</v>
+      <c r="A2" s="216" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" s="217" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" s="220" t="s">
+        <v>133</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>43</v>
@@ -5085,13 +5826,13 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="172" t="s">
-        <v>199</v>
-      </c>
-      <c r="B3" s="173" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="179" t="s">
+      <c r="A3" s="231" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" s="232" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" s="238" t="s">
         <v>133</v>
       </c>
       <c r="D3" s="15" t="s">

--- a/testdata/FCfiles/stg/ManageClaims/ManageClaims.xlsx
+++ b/testdata/FCfiles/stg/ManageClaims/ManageClaims.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="248">
   <si>
     <t>shipmentType</t>
   </si>
@@ -716,6 +716,63 @@
   </si>
   <si>
     <t>DropOff4424</t>
+  </si>
+  <si>
+    <t>59086118</t>
+  </si>
+  <si>
+    <t>08-18-2022</t>
+  </si>
+  <si>
+    <t>$529.59</t>
+  </si>
+  <si>
+    <t>171U910572</t>
+  </si>
+  <si>
+    <t>FCPBID1034951</t>
+  </si>
+  <si>
+    <t>PickUp7423</t>
+  </si>
+  <si>
+    <t>DropOff1732</t>
+  </si>
+  <si>
+    <t>59086147</t>
+  </si>
+  <si>
+    <t>$556.04</t>
+  </si>
+  <si>
+    <t>171U910861</t>
+  </si>
+  <si>
+    <t>FCPBID1034954</t>
+  </si>
+  <si>
+    <t>PickUp4772</t>
+  </si>
+  <si>
+    <t>DropOff3085</t>
+  </si>
+  <si>
+    <t>59086148</t>
+  </si>
+  <si>
+    <t>$524.68</t>
+  </si>
+  <si>
+    <t>171U911059</t>
+  </si>
+  <si>
+    <t>FCPBID1034955</t>
+  </si>
+  <si>
+    <t>PickUp4866</t>
+  </si>
+  <si>
+    <t>DropOff2654</t>
   </si>
 </sst>
 </file>
@@ -744,7 +801,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="428">
+  <fills count="562">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2881,8 +2938,678 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="426">
+  <borders count="560">
     <border>
       <left/>
       <right/>
@@ -4614,11 +5341,480 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="239">
+  <cellXfs count="306">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -4857,7 +6053,74 @@
     <xf applyBorder="true" applyFill="true" borderId="419" fillId="421" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="421" fillId="423" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="423" fillId="425" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="427" borderId="425" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="425" fillId="427" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="427" fillId="429" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="429" fillId="431" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="431" fillId="433" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="433" fillId="435" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="435" fillId="437" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="437" fillId="439" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="439" fillId="441" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="441" fillId="443" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="443" fillId="445" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="445" fillId="447" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="447" fillId="449" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="449" fillId="451" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="451" fillId="453" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="453" fillId="455" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="455" fillId="457" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="457" fillId="459" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="459" fillId="461" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="461" fillId="463" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="463" fillId="465" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="465" fillId="467" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="467" fillId="469" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="469" fillId="471" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="471" fillId="473" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="473" fillId="475" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="475" fillId="477" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="477" fillId="479" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="479" fillId="481" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="481" fillId="483" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="483" fillId="485" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="485" fillId="487" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="487" fillId="489" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="489" fillId="491" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="491" fillId="493" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="493" fillId="495" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="495" fillId="497" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="497" fillId="499" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="499" fillId="501" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="501" fillId="503" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="503" fillId="505" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="505" fillId="507" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="507" fillId="509" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="509" fillId="511" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="511" fillId="513" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="513" fillId="515" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="515" fillId="517" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="517" fillId="519" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="519" fillId="521" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="521" fillId="523" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="523" fillId="525" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="525" fillId="527" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="527" fillId="529" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="529" fillId="531" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="531" fillId="533" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="533" fillId="535" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="535" fillId="537" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="537" fillId="539" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="539" fillId="541" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="541" fillId="543" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="543" fillId="545" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="545" fillId="547" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="547" fillId="549" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="549" fillId="551" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="551" fillId="553" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="553" fillId="555" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="555" fillId="557" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="557" fillId="559" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="561" borderId="559" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -5318,8 +6581,8 @@
       <c r="B2" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="229" t="s">
-        <v>227</v>
+      <c r="C2" s="297" t="s">
+        <v>246</v>
       </c>
       <c r="D2" t="s">
         <v>110</v>
@@ -5342,8 +6605,8 @@
       <c r="J2" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K2" s="230" t="s">
-        <v>228</v>
+      <c r="K2" s="298" t="s">
+        <v>247</v>
       </c>
       <c r="L2" t="s">
         <v>113</v>
@@ -5488,8 +6751,8 @@
       <c r="A2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="208" t="s">
-        <v>217</v>
+      <c r="B2" s="275" t="s">
+        <v>230</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>17</v>
@@ -5540,22 +6803,22 @@
       <c r="S2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="207" t="s">
-        <v>216</v>
-      </c>
-      <c r="U2" s="209" t="s">
-        <v>218</v>
+      <c r="T2" s="305" t="s">
+        <v>76</v>
+      </c>
+      <c r="U2" s="276" t="s">
+        <v>237</v>
       </c>
       <c r="V2" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="W2" s="210" t="s">
-        <v>219</v>
-      </c>
-      <c r="X2" s="211" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y2" s="212" t="s">
+      <c r="W2" s="277" t="s">
+        <v>238</v>
+      </c>
+      <c r="X2" s="278" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y2" s="279" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5563,8 +6826,8 @@
       <c r="A3" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="223" t="s">
-        <v>217</v>
+      <c r="B3" s="291" t="s">
+        <v>230</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>17</v>
@@ -5615,22 +6878,22 @@
       <c r="S3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="222" t="s">
-        <v>223</v>
-      </c>
-      <c r="U3" s="224" t="s">
-        <v>224</v>
+      <c r="T3" s="290" t="s">
+        <v>242</v>
+      </c>
+      <c r="U3" s="292" t="s">
+        <v>243</v>
       </c>
       <c r="V3" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="W3" s="225" t="s">
-        <v>225</v>
-      </c>
-      <c r="X3" s="226" t="s">
-        <v>226</v>
-      </c>
-      <c r="Y3" s="227"/>
+      <c r="W3" s="293" t="s">
+        <v>244</v>
+      </c>
+      <c r="X3" s="294" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y3" s="295"/>
     </row>
     <row customHeight="1" ht="15.75" r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -5788,7 +7051,7 @@
       <c r="B2" s="217" t="s">
         <v>217</v>
       </c>
-      <c r="C2" s="220" t="s">
+      <c r="C2" s="288" t="s">
         <v>133</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -5832,7 +7095,7 @@
       <c r="B3" s="232" t="s">
         <v>217</v>
       </c>
-      <c r="C3" s="238" t="s">
+      <c r="C3" s="304" t="s">
         <v>133</v>
       </c>
       <c r="D3" s="15" t="s">

--- a/testdata/FCfiles/stg/ManageClaims/ManageClaims.xlsx
+++ b/testdata/FCfiles/stg/ManageClaims/ManageClaims.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="261">
   <si>
     <t>shipmentType</t>
   </si>
@@ -773,6 +773,45 @@
   </si>
   <si>
     <t>DropOff2654</t>
+  </si>
+  <si>
+    <t>59086480</t>
+  </si>
+  <si>
+    <t>08-28-2022</t>
+  </si>
+  <si>
+    <t>$573.90</t>
+  </si>
+  <si>
+    <t>999U930762</t>
+  </si>
+  <si>
+    <t>FCPBID1034959</t>
+  </si>
+  <si>
+    <t>PickUp5189</t>
+  </si>
+  <si>
+    <t>DropOff4611</t>
+  </si>
+  <si>
+    <t>59086481</t>
+  </si>
+  <si>
+    <t>$542.54</t>
+  </si>
+  <si>
+    <t>999U930797</t>
+  </si>
+  <si>
+    <t>FCPBID1034960</t>
+  </si>
+  <si>
+    <t>PickUp7557</t>
+  </si>
+  <si>
+    <t>DropOff722</t>
   </si>
 </sst>
 </file>
@@ -801,7 +840,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="562">
+  <fills count="618">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3608,8 +3647,288 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="560">
+  <borders count="616">
     <border>
       <left/>
       <right/>
@@ -5810,11 +6129,207 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="306">
+  <cellXfs count="334">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -6120,7 +6635,35 @@
     <xf applyBorder="true" applyFill="true" borderId="553" fillId="555" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="555" fillId="557" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="557" fillId="559" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="561" borderId="559" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="559" fillId="561" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="561" fillId="563" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="563" fillId="565" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="565" fillId="567" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="567" fillId="569" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="569" fillId="571" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="571" fillId="573" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="573" fillId="575" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="575" fillId="577" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="577" fillId="579" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="579" fillId="581" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="581" fillId="583" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="583" fillId="585" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="585" fillId="587" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="587" fillId="589" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="589" fillId="591" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="591" fillId="593" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="593" fillId="595" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="595" fillId="597" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="597" fillId="599" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="599" fillId="601" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="601" fillId="603" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="603" fillId="605" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="605" fillId="607" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="607" fillId="609" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="609" fillId="611" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="611" fillId="613" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="613" fillId="615" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="617" borderId="615" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -6581,8 +7124,8 @@
       <c r="B2" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="297" t="s">
-        <v>246</v>
+      <c r="C2" s="324" t="s">
+        <v>259</v>
       </c>
       <c r="D2" t="s">
         <v>110</v>
@@ -6605,8 +7148,8 @@
       <c r="J2" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K2" s="298" t="s">
-        <v>247</v>
+      <c r="K2" s="325" t="s">
+        <v>260</v>
       </c>
       <c r="L2" t="s">
         <v>113</v>
@@ -6751,8 +7294,8 @@
       <c r="A2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="275" t="s">
-        <v>230</v>
+      <c r="B2" s="308" t="s">
+        <v>249</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>17</v>
@@ -6803,22 +7346,22 @@
       <c r="S2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="305" t="s">
-        <v>76</v>
-      </c>
-      <c r="U2" s="276" t="s">
-        <v>237</v>
+      <c r="T2" s="307" t="s">
+        <v>248</v>
+      </c>
+      <c r="U2" s="309" t="s">
+        <v>250</v>
       </c>
       <c r="V2" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="W2" s="277" t="s">
-        <v>238</v>
-      </c>
-      <c r="X2" s="278" t="s">
-        <v>239</v>
-      </c>
-      <c r="Y2" s="279" t="s">
+      <c r="W2" s="310" t="s">
+        <v>251</v>
+      </c>
+      <c r="X2" s="311" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y2" s="312" t="s">
         <v>136</v>
       </c>
     </row>
@@ -6826,8 +7369,8 @@
       <c r="A3" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="291" t="s">
-        <v>230</v>
+      <c r="B3" s="318" t="s">
+        <v>249</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>17</v>
@@ -6878,22 +7421,22 @@
       <c r="S3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="290" t="s">
-        <v>242</v>
-      </c>
-      <c r="U3" s="292" t="s">
-        <v>243</v>
+      <c r="T3" s="317" t="s">
+        <v>255</v>
+      </c>
+      <c r="U3" s="319" t="s">
+        <v>256</v>
       </c>
       <c r="V3" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="W3" s="293" t="s">
-        <v>244</v>
-      </c>
-      <c r="X3" s="294" t="s">
-        <v>245</v>
-      </c>
-      <c r="Y3" s="295"/>
+      <c r="W3" s="320" t="s">
+        <v>257</v>
+      </c>
+      <c r="X3" s="321" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y3" s="322"/>
     </row>
     <row customHeight="1" ht="15.75" r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -7051,8 +7594,8 @@
       <c r="B2" s="217" t="s">
         <v>217</v>
       </c>
-      <c r="C2" s="288" t="s">
-        <v>133</v>
+      <c r="C2" s="313" t="s">
+        <v>79</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>43</v>
@@ -7089,13 +7632,13 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="231" t="s">
-        <v>223</v>
-      </c>
-      <c r="B3" s="232" t="s">
-        <v>217</v>
-      </c>
-      <c r="C3" s="304" t="s">
+      <c r="A3" s="326" t="s">
+        <v>255</v>
+      </c>
+      <c r="B3" s="327" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3" s="333" t="s">
         <v>133</v>
       </c>
       <c r="D3" s="15" t="s">
